--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1809715.395821545</v>
+        <v>-1812603.356091711</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>146.6930915991003</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>56.34087853973239</v>
+        <v>192.4502561958946</v>
       </c>
       <c r="W2" t="n">
-        <v>207.9594773025446</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>266.6910260201689</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.5627265154898</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>323.4885010385526</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>13.27534634750278</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>235.500096002687</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>68.67045659282729</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>210.6001800509451</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>122.2417965377554</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>168.9986963821326</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T13" t="n">
-        <v>172.8869738680033</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>109.1623230749892</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>139.1630968205466</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>58.47559664514451</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>66.43694060668973</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>150.6726801246967</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261726</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>576.3714747656866</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.636483150078</v>
+        <v>1799.152263295369</v>
       </c>
       <c r="W2" t="n">
-        <v>1726.5764050667</v>
+        <v>1446.383608025255</v>
       </c>
       <c r="X2" t="n">
-        <v>1353.11064680562</v>
+        <v>1072.917849764175</v>
       </c>
       <c r="Y2" t="n">
-        <v>962.9713148298083</v>
+        <v>682.7785177883632</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>2502.641286457122</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1690.309452335796</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2683.739650263169</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2429.977864901261</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2098.91497755769</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1746.146322287575</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1746.146322287575</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>2048.575150942547</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V7" t="n">
-        <v>490.2500993552354</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>865.5634771291434</v>
+        <v>1059.666235870466</v>
       </c>
       <c r="C8" t="n">
-        <v>796.199379560631</v>
+        <v>690.7037189300547</v>
       </c>
       <c r="D8" t="n">
-        <v>796.199379560631</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="E8" t="n">
-        <v>796.199379560631</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.302649169077</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="X8" t="n">
-        <v>1642.302649169077</v>
+        <v>1836.4054079104</v>
       </c>
       <c r="Y8" t="n">
-        <v>1252.163317193265</v>
+        <v>1446.266075934588</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>744.5715932067358</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
         <v>972.6029207988471</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9621601778723</v>
+        <v>641.24892469804</v>
       </c>
       <c r="C10" t="n">
-        <v>372.9621601778723</v>
+        <v>641.24892469804</v>
       </c>
       <c r="D10" t="n">
-        <v>372.9621601778723</v>
+        <v>491.1322852857043</v>
       </c>
       <c r="E10" t="n">
-        <v>372.9621601778723</v>
+        <v>343.2191917033111</v>
       </c>
       <c r="F10" t="n">
-        <v>226.072212679962</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
         <v>71.81756957972706</v>
@@ -4993,19 +4993,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>883.1719093583631</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="W10" t="n">
-        <v>593.7547393214024</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="X10" t="n">
-        <v>593.7547393214024</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9621601778723</v>
+        <v>764.7254868573889</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5057,28 +5057,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232836</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2022.429238550191</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U13" t="n">
-        <v>1733.354011894388</v>
+        <v>1907.987318831764</v>
       </c>
       <c r="V13" t="n">
-        <v>1478.669523688501</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1189.252353651541</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>961.2628027535234</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535234</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,25 +5294,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.345997432835</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>923.4098145049279</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>773.2931750925922</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>625.380081510199</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304622</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.787041406604</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.994462263074</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1024.063349920563</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>855.1271669926557</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>705.0105275803199</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>557.0974339979268</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>410.2074865000164</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>243.0113872148964</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,22 +5762,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5981,13 +5981,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5996,16 +5996,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349513</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,19 +6309,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349513</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6382,7 +6382,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6549,13 +6549,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6598,28 +6598,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311322</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,16 +6953,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,10 +7023,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
         <v>782.551295565682</v>
@@ -7081,43 +7081,43 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954158</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380736</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979287</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,37 +7564,37 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,16 +7719,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>49.02423357323892</v>
+        <v>168.8820637317194</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
-        <v>-8.799369345713404e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-6.519919684862912e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>236.0407500643803</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22562,7 +22562,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>271.4113799304025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>19.83197231642208</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>44.51847645928501</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>142.9753202488388</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.257951202384618</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>167.2340587438926</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>73.85777223953413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>75.0369752643405</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359156</v>
+        <v>81152.27790359154</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="D2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
         <v>100893.3249612508</v>
@@ -26326,10 +26326,10 @@
         <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
+        <v>100893.3249612508</v>
+      </c>
+      <c r="H2" t="n">
         <v>100893.3249612507</v>
-      </c>
-      <c r="H2" t="n">
-        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682735</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682732</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682687</v>
+        <v>5677.536566682777</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977618</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977614</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703525.8716104692</v>
+        <v>-703955.4304770582</v>
       </c>
       <c r="C6" t="n">
         <v>-190151.2722934074</v>
@@ -26528,22 +26528,22 @@
         <v>-345955.0783872023</v>
       </c>
       <c r="E6" t="n">
-        <v>-776959.4328101457</v>
+        <v>-776994.1707355811</v>
       </c>
       <c r="F6" t="n">
-        <v>-5906.741429339105</v>
+        <v>-5941.479354774739</v>
       </c>
       <c r="G6" t="n">
-        <v>-5906.741429339105</v>
+        <v>-5941.479354774783</v>
       </c>
       <c r="H6" t="n">
-        <v>-5906.741429339032</v>
+        <v>-5941.479354774827</v>
       </c>
       <c r="I6" t="n">
-        <v>-5906.74142933909</v>
+        <v>-5941.479354774783</v>
       </c>
       <c r="J6" t="n">
-        <v>-210053.2276368807</v>
+        <v>-210053.2276368808</v>
       </c>
       <c r="K6" t="n">
         <v>-14202.29045065603</v>
@@ -26555,13 +26555,13 @@
         <v>-138410.8011587147</v>
       </c>
       <c r="N6" t="n">
-        <v>-14202.29045065623</v>
+        <v>-14202.29045065618</v>
       </c>
       <c r="O6" t="n">
         <v>-33630.00844428792</v>
       </c>
       <c r="P6" t="n">
-        <v>-14202.29045065619</v>
+        <v>-14202.29045065615</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450932</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>135.3020022742403</v>
       </c>
       <c r="W2" t="n">
-        <v>141.2814914148684</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>26.02192683660502</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>58.44186903370922</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.172974010155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>80.49006577330425</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>16.637547321141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>296.6024351781803</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>144.0828615697379</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>57.59018364418192</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>83.13894694169542</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O24" t="n">
-        <v>491.5977325265315</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>491.5977325265315</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33263,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>575.5951359912044</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>237.3557891543622</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34951,7 +34951,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>68.29072693268387</v>
@@ -35258,7 +35258,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>230.334674335466</v>
+        <v>350.1925044939465</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O24" t="n">
-        <v>349.0014880820871</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>349.0014880820871</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>433.4611020691861</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>94.75954470991782</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902408</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
